--- a/biology/Neurosciences/Silvia_Arber/Silvia_Arber.xlsx
+++ b/biology/Neurosciences/Silvia_Arber/Silvia_Arber.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Silvia Arber (née en 1968 à Genève) est une neurobiologiste suisse[1]. Elle enseigne et fait de la recherche au Biozentrum de l'Université de Bâle et à l'Institut Friedrich Miescher pour la recherche biomédicale à Bâle en Suisse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Silvia Arber (née en 1968 à Genève) est une neurobiologiste suisse. Elle enseigne et fait de la recherche au Biozentrum de l'Université de Bâle et à l'Institut Friedrich Miescher pour la recherche biomédicale à Bâle en Suisse.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Silvia Arber a étudié la biologie au Biozentrum de l'Université de Bâle et soutenu son doctorat en 1995 à l'Institut Friedrich Miescher (FMI). Elle a ensuite été stagiaire postdoctorale à l'Université de Columbia à New York. Elle est retournée en 2000 à Bâle en tant que professeure de Neurobiologie/Biologie Cellulaire, et poursuit son activité d'enseignement et de recherche au Biozentrum ainsi qu'au FMI. 
-Silvia Arber est la fille du microbiologiste et généticien suisse Werner Arber, qui, en 1978, a reçu le Prix Nobel de Physiologie ou Médecine à partir des travaux de Grete Kellenberger et  Daisy Dussoix[2].
+Silvia Arber est la fille du microbiologiste et généticien suisse Werner Arber, qui, en 1978, a reçu le Prix Nobel de Physiologie ou Médecine à partir des travaux de Grete Kellenberger et  Daisy Dussoix.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Silvia Arber étudie les mécanismes impliqués dans le fonctionnement et les connexions des circuits neuronaux contrôlant le comportement moteur. Elle a montré que le groupe interneuronal pré-moteur diffère des autres groupes dans ses fonctionnalités et sa distribution dans la moelle épinière, et que ces différences sont liées au calendrier de leur apparition dans leur développement[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Silvia Arber étudie les mécanismes impliqués dans le fonctionnement et les connexions des circuits neuronaux contrôlant le comportement moteur. Elle a montré que le groupe interneuronal pré-moteur diffère des autres groupes dans ses fonctionnalités et sa distribution dans la moelle épinière, et que ces différences sont liées au calendrier de leur apparition dans leur développement.
 </t>
         </is>
       </c>
@@ -574,21 +590,23 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1998 : Pfizer Forschungspreis[4]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1998 : Pfizer Forschungspreis
 2003 :
-Prix Latsis National[5]
+Prix Latsis National
 Prix Eppendorf pour jeunes chercheurs européens
-2005 : élue Membre de l'Organisation Européenne de Biologie Moléculaire (EMBO)[6]
-2005 : Schellenberg Prize[7]
-2008 : Prix Friedrich Miescher[8]
-2009 : ERC Advanced Enquêteurs de la Subvention[9]
-2014 : Prix Otto Naegeli[10]
-2014 : élue Membre de l'Academia Europaea[11]
-2017 : Prix Louis-Jeantet de Médecine [12]
+2005 : élue Membre de l'Organisation Européenne de Biologie Moléculaire (EMBO)
+2005 : Schellenberg Prize
+2008 : Prix Friedrich Miescher
+2009 : ERC Advanced Enquêteurs de la Subvention
+2014 : Prix Otto Naegeli
+2014 : élue Membre de l'Academia Europaea
+2017 : Prix Louis-Jeantet de Médecine 
 2018 : Prix international de la Fondation Fyssen
-2019 : Prix Charles-Léopold-Mayer de l'académie des sciences de France[13].</t>
+2019 : Prix Charles-Léopold-Mayer de l'académie des sciences de France.</t>
         </is>
       </c>
     </row>
